--- a/Teaching/LaTech/CSC 430/_edit/CSC 430+530 - Schedule.xlsx
+++ b/Teaching/LaTech/CSC 430/_edit/CSC 430+530 - Schedule.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunzi\Documents\Study\Teaching\LaTech\CSC 430\_edit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDEEBC8-BD54-4D4F-91CE-8E3CA612F669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B4A0B-CF95-47AB-B107-DE3F0652B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BFE6B020-4B26-477D-BC9B-D3FDEF8B7AB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFE6B020-4B26-477D-BC9B-D3FDEF8B7AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedule!$A$2:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedule!$A$2:$G$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Presentation 3 Topic</t>
+  </si>
+  <si>
+    <t>Grading Report</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -353,11 +356,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +475,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,10 +823,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,16 +835,17 @@
     <col min="2" max="2" width="34.44140625" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,14 +858,17 @@
       <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45729</v>
       </c>
@@ -831,10 +877,11 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="38"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45734</v>
       </c>
@@ -842,10 +889,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="20"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45736</v>
       </c>
@@ -856,10 +903,11 @@
         <v>33</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="38"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45741</v>
       </c>
@@ -870,10 +918,11 @@
       <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="39"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45743</v>
       </c>
@@ -884,10 +933,13 @@
       <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="39">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45748</v>
       </c>
@@ -898,10 +950,11 @@
         <v>34</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="40"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45750</v>
       </c>
@@ -911,10 +964,10 @@
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="19"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45755</v>
       </c>
@@ -925,20 +978,22 @@
       <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="39"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45757</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="13"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="41"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45762</v>
       </c>
@@ -949,10 +1004,11 @@
       <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="39"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45764</v>
       </c>
@@ -962,10 +1018,10 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="19"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45769</v>
       </c>
@@ -976,12 +1032,13 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45771</v>
       </c>
@@ -989,14 +1046,14 @@
         <v>31</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45776</v>
       </c>
@@ -1007,14 +1064,15 @@
         <v>36</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45778</v>
       </c>
@@ -1024,14 +1082,14 @@
       <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="G17" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45783</v>
       </c>
@@ -1042,22 +1100,24 @@
       <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45785</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="41"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45790</v>
       </c>
@@ -1068,10 +1128,11 @@
       <c r="D20" s="10">
         <v>5</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="39"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45792</v>
       </c>
@@ -1079,10 +1140,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="19"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>45797</v>
       </c>
@@ -1093,10 +1154,11 @@
       <c r="D22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="43"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>45779</v>
       </c>
@@ -1104,7 +1166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>45797</v>
       </c>
